--- a/test-code-generator/Evaluation/QuantitativeEvaluation/5/UC2.3_TC2.xlsx
+++ b/test-code-generator/Evaluation/QuantitativeEvaluation/5/UC2.3_TC2.xlsx
@@ -620,11 +620,11 @@
         </is>
       </c>
       <c r="B12" s="3" t="n">
-        <v>0.2411780472015264</v>
+        <v>0.2464597373423715</v>
       </c>
       <c r="C12" s="3" t="inlineStr">
         <is>
-          <t>{'codebleu': 0.24117804720152639, 'ngram_match_score': 0.07899881608984721, 'weighted_ngram_match_score': 0.0905255792890283, 'syntax_match_score': 0.5416666666666666, 'dataflow_match_score': 0.2535211267605634}</t>
+          <t>{'codebleu': 0.24645973734237148, 'ngram_match_score': 0.07899881608984721, 'weighted_ngram_match_score': 0.0905255792890283, 'syntax_match_score': 0.5416666666666666, 'dataflow_match_score': 0.2746478873239437}</t>
         </is>
       </c>
       <c r="D12" s="7" t="inlineStr">
